--- a/database/industries/zeraat/zegoldasht/product/quarterly.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D8337-0AF5-4891-BCFD-A105CADFC68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15508345-77C5-4391-9846-40AE4B79700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,16 +64,19 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>شیر</t>
   </si>
   <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
   </si>
   <si>
     <t>کود حیوانی</t>
@@ -607,16 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N94"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -631,7 +631,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -680,7 +680,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,7 +729,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -781,7 +781,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -789,38 +789,38 @@
         <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
+      <c r="E10" s="9">
+        <v>10850</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44704539</v>
+      </c>
+      <c r="G10" s="9">
+        <v>12691</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9">
-        <v>12902</v>
-      </c>
-      <c r="J10" s="9">
-        <v>12639</v>
-      </c>
-      <c r="K10" s="9">
-        <v>13516</v>
-      </c>
-      <c r="L10" s="9">
-        <v>13974</v>
-      </c>
-      <c r="M10" s="9">
-        <v>13386</v>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="N10" s="9">
-        <v>14517</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -828,43 +828,43 @@
         <v>18</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>-10930965</v>
-      </c>
-      <c r="F11" s="11">
-        <v>10850</v>
-      </c>
-      <c r="G11" s="11">
-        <v>44704539</v>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H11" s="11">
-        <v>12691</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>17</v>
+        <v>12902</v>
+      </c>
+      <c r="I11" s="11">
+        <v>12639</v>
+      </c>
+      <c r="J11" s="11">
+        <v>13516</v>
+      </c>
+      <c r="K11" s="11">
+        <v>13974</v>
+      </c>
+      <c r="L11" s="11">
+        <v>13386</v>
+      </c>
+      <c r="M11" s="11">
+        <v>14517</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
@@ -876,29 +876,29 @@
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="H12" s="9">
+        <v>17305</v>
       </c>
       <c r="I12" s="9">
-        <v>17305</v>
+        <v>-17305</v>
       </c>
       <c r="J12" s="9">
-        <v>-17305</v>
+        <v>38295</v>
       </c>
       <c r="K12" s="9">
-        <v>38295</v>
+        <v>14003</v>
       </c>
       <c r="L12" s="9">
-        <v>14003</v>
+        <v>9107</v>
       </c>
       <c r="M12" s="9">
-        <v>9107</v>
+        <v>15777</v>
       </c>
       <c r="N12" s="9">
-        <v>15777</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12593</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -913,14 +913,14 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>17</v>
@@ -935,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -944,37 +944,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>481</v>
+        <v>589</v>
       </c>
       <c r="F14" s="9">
-        <v>589</v>
+        <v>465</v>
       </c>
       <c r="G14" s="9">
-        <v>465</v>
+        <v>394</v>
       </c>
       <c r="H14" s="9">
-        <v>394</v>
+        <v>489</v>
       </c>
       <c r="I14" s="9">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="J14" s="9">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K14" s="9">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="L14" s="9">
-        <v>415</v>
+        <v>655</v>
       </c>
       <c r="M14" s="9">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="N14" s="9">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -991,14 +991,14 @@
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="11">
-        <v>0</v>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>17</v>
@@ -1013,44 +1013,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>-10930484</v>
+        <v>11439</v>
       </c>
       <c r="F16" s="13">
-        <v>11439</v>
+        <v>44705004</v>
       </c>
       <c r="G16" s="13">
-        <v>44705004</v>
+        <v>13085</v>
       </c>
       <c r="H16" s="13">
-        <v>13085</v>
+        <v>30696</v>
       </c>
       <c r="I16" s="13">
-        <v>30696</v>
+        <v>-4211</v>
       </c>
       <c r="J16" s="13">
-        <v>-4211</v>
+        <v>52277</v>
       </c>
       <c r="K16" s="13">
-        <v>52277</v>
+        <v>28392</v>
       </c>
       <c r="L16" s="13">
-        <v>28392</v>
+        <v>23148</v>
       </c>
       <c r="M16" s="13">
-        <v>23148</v>
+        <v>30956</v>
       </c>
       <c r="N16" s="13">
-        <v>30956</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1065,7 +1065,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1155,322 +1155,346 @@
         <v>16</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>10618</v>
-      </c>
-      <c r="F22" s="9">
-        <v>32439421</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12259</v>
-      </c>
-      <c r="H22" s="9">
-        <v>12691</v>
-      </c>
-      <c r="I22" s="9">
-        <v>11951</v>
-      </c>
-      <c r="J22" s="9">
-        <v>12146</v>
-      </c>
-      <c r="K22" s="9">
-        <v>12979</v>
-      </c>
-      <c r="L22" s="9">
-        <v>13569</v>
-      </c>
-      <c r="M22" s="9">
-        <v>12798</v>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="N22" s="9">
-        <v>13838</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54893655</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>32439421</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
+        <v>12259</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>17</v>
+        <v>12691</v>
+      </c>
+      <c r="H23" s="11">
+        <v>11951</v>
+      </c>
+      <c r="I23" s="11">
+        <v>12146</v>
+      </c>
+      <c r="J23" s="11">
+        <v>12979</v>
+      </c>
+      <c r="K23" s="11">
+        <v>13569</v>
+      </c>
+      <c r="L23" s="11">
+        <v>12798</v>
+      </c>
+      <c r="M23" s="11">
+        <v>13838</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11">
         <v>24625</v>
       </c>
-      <c r="J24" s="9">
+      <c r="I25" s="11">
         <v>-24625</v>
       </c>
-      <c r="K24" s="9">
+      <c r="J25" s="11">
         <v>43828</v>
       </c>
-      <c r="L24" s="9">
+      <c r="K25" s="11">
         <v>14595</v>
       </c>
-      <c r="M24" s="9">
+      <c r="L25" s="11">
         <v>9622</v>
       </c>
-      <c r="N24" s="9">
+      <c r="M25" s="11">
         <v>7320</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="N25" s="11">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>274</v>
-      </c>
-      <c r="G26" s="9">
-        <v>849</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H26" s="9">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>296</v>
-      </c>
-      <c r="J26" s="9">
-        <v>543</v>
-      </c>
-      <c r="K26" s="9">
-        <v>469</v>
-      </c>
-      <c r="L26" s="9">
-        <v>336</v>
-      </c>
-      <c r="M26" s="9">
-        <v>461</v>
-      </c>
-      <c r="N26" s="9">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F27" s="11">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="I27" s="11">
+        <v>543</v>
+      </c>
+      <c r="J27" s="11">
+        <v>469</v>
+      </c>
+      <c r="K27" s="11">
+        <v>336</v>
+      </c>
+      <c r="L27" s="11">
+        <v>461</v>
+      </c>
+      <c r="M27" s="11">
+        <v>953</v>
+      </c>
+      <c r="N27" s="11">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15">
-        <v>10738</v>
-      </c>
-      <c r="F29" s="15">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13">
         <v>32439695</v>
       </c>
-      <c r="G29" s="15">
+      <c r="F30" s="13">
         <v>13108</v>
       </c>
-      <c r="H29" s="15">
+      <c r="G30" s="13">
         <v>13336</v>
       </c>
-      <c r="I29" s="15">
+      <c r="H30" s="13">
         <v>36872</v>
       </c>
-      <c r="J29" s="15">
+      <c r="I30" s="13">
         <v>-11936</v>
       </c>
-      <c r="K29" s="15">
+      <c r="J30" s="13">
         <v>57276</v>
       </c>
-      <c r="L29" s="15">
+      <c r="K30" s="13">
         <v>28500</v>
       </c>
-      <c r="M29" s="15">
+      <c r="L30" s="13">
         <v>22881</v>
       </c>
-      <c r="N29" s="15">
+      <c r="M30" s="13">
         <v>22111</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="13">
+        <v>54903703</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1485,7 +1509,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1500,345 +1524,345 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>392351</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
         <v>469349</v>
       </c>
-      <c r="G35" s="9">
+      <c r="F36" s="9">
         <v>580094</v>
       </c>
-      <c r="H35" s="9">
+      <c r="G36" s="9">
         <v>616723</v>
       </c>
-      <c r="I35" s="9">
+      <c r="H36" s="9">
         <v>718347</v>
       </c>
-      <c r="J35" s="9">
+      <c r="I36" s="9">
         <v>799262</v>
       </c>
-      <c r="K35" s="9">
+      <c r="J36" s="9">
         <v>860266</v>
       </c>
-      <c r="L35" s="9">
+      <c r="K36" s="9">
         <v>1152561</v>
       </c>
-      <c r="M35" s="9">
+      <c r="L36" s="9">
         <v>1536904</v>
       </c>
-      <c r="N35" s="9">
+      <c r="M36" s="9">
         <v>1714231</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="N36" s="9">
+        <v>1843547</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9">
         <v>43094</v>
       </c>
-      <c r="J37" s="9">
+      <c r="I38" s="9">
         <v>19853</v>
       </c>
-      <c r="K37" s="9">
+      <c r="J38" s="9">
         <v>18744</v>
       </c>
-      <c r="L37" s="9">
+      <c r="K38" s="9">
         <v>21082</v>
       </c>
-      <c r="M37" s="9">
+      <c r="L38" s="9">
         <v>18739</v>
       </c>
-      <c r="N37" s="9">
+      <c r="M38" s="9">
         <v>16522</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="N38" s="9">
+        <v>12026</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>7931</v>
-      </c>
-      <c r="F39" s="9">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
         <v>21938</v>
       </c>
-      <c r="G39" s="9">
+      <c r="F40" s="9">
         <v>61884</v>
       </c>
-      <c r="H39" s="9">
+      <c r="G40" s="9">
         <v>50586</v>
       </c>
-      <c r="I39" s="9">
+      <c r="H40" s="9">
         <v>25177</v>
       </c>
-      <c r="J39" s="9">
+      <c r="I40" s="9">
         <v>48294</v>
       </c>
-      <c r="K39" s="9">
+      <c r="J40" s="9">
         <v>39679</v>
       </c>
-      <c r="L39" s="9">
+      <c r="K40" s="9">
         <v>31048</v>
       </c>
-      <c r="M39" s="9">
+      <c r="L40" s="9">
         <v>59881</v>
       </c>
-      <c r="N39" s="9">
+      <c r="M40" s="9">
         <v>111486</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+      <c r="N40" s="9">
+        <v>106341</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>26069</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11">
         <v>42622</v>
       </c>
-      <c r="G40" s="11">
+      <c r="F41" s="11">
         <v>-2688</v>
       </c>
-      <c r="H40" s="11">
+      <c r="G41" s="11">
         <v>2595</v>
       </c>
-      <c r="I40" s="11">
+      <c r="H41" s="11">
         <v>1721</v>
       </c>
-      <c r="J40" s="11">
+      <c r="I41" s="11">
         <v>28126</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13">
-        <v>426351</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13">
         <v>533909</v>
       </c>
-      <c r="G41" s="13">
+      <c r="F42" s="13">
         <v>639290</v>
       </c>
-      <c r="H41" s="13">
+      <c r="G42" s="13">
         <v>669904</v>
       </c>
-      <c r="I41" s="13">
+      <c r="H42" s="13">
         <v>788339</v>
       </c>
-      <c r="J41" s="13">
+      <c r="I42" s="13">
         <v>895535</v>
       </c>
-      <c r="K41" s="13">
+      <c r="J42" s="13">
         <v>918689</v>
       </c>
-      <c r="L41" s="13">
+      <c r="K42" s="13">
         <v>1204691</v>
       </c>
-      <c r="M41" s="13">
+      <c r="L42" s="13">
         <v>1615524</v>
       </c>
-      <c r="N41" s="13">
+      <c r="M42" s="13">
         <v>1842239</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="13">
+        <v>1961914</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1853,7 +1877,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1868,308 +1892,308 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N46" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>36951497</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
         <v>14468</v>
       </c>
-      <c r="G47" s="9">
+      <c r="F48" s="9">
         <v>-17895</v>
       </c>
-      <c r="H47" s="9">
+      <c r="G48" s="9">
         <v>48595304</v>
       </c>
-      <c r="I47" s="9">
+      <c r="H48" s="9">
         <v>60107690</v>
       </c>
-      <c r="J47" s="9">
+      <c r="I48" s="9">
         <v>65804545</v>
       </c>
-      <c r="K47" s="9">
+      <c r="J48" s="9">
         <v>66281378</v>
       </c>
-      <c r="L47" s="9">
+      <c r="K48" s="9">
         <v>84940747</v>
       </c>
-      <c r="M47" s="9">
+      <c r="L48" s="9">
         <v>120089389</v>
       </c>
-      <c r="N47" s="9">
+      <c r="M48" s="9">
         <v>123878523</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="N48" s="9">
+        <v>33584</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="9">
         <v>1750010</v>
       </c>
-      <c r="J49" s="9">
+      <c r="I50" s="9">
         <v>-806213</v>
       </c>
-      <c r="K49" s="9">
+      <c r="J50" s="9">
         <v>427672</v>
       </c>
-      <c r="L49" s="9">
+      <c r="K50" s="9">
         <v>1444467</v>
       </c>
-      <c r="M49" s="9">
+      <c r="L50" s="9">
         <v>1947516</v>
       </c>
-      <c r="N49" s="9">
+      <c r="M50" s="9">
         <v>2257104</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+      <c r="N50" s="9">
+        <v>1312882</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9">
-        <v>66091667</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9">
         <v>80065693</v>
       </c>
-      <c r="G51" s="9">
+      <c r="F52" s="9">
         <v>72890459</v>
       </c>
-      <c r="H51" s="9">
+      <c r="G52" s="9">
         <v>78427907</v>
       </c>
-      <c r="I51" s="9">
+      <c r="H52" s="9">
         <v>85057432</v>
       </c>
-      <c r="J51" s="9">
+      <c r="I52" s="9">
         <v>88939227</v>
       </c>
-      <c r="K51" s="9">
+      <c r="J52" s="9">
         <v>84603412</v>
       </c>
-      <c r="L51" s="9">
+      <c r="K52" s="9">
         <v>92404762</v>
       </c>
-      <c r="M51" s="9">
+      <c r="L52" s="9">
         <v>129893709</v>
       </c>
-      <c r="N51" s="9">
+      <c r="M52" s="9">
         <v>116984260</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+      <c r="N52" s="9">
+        <v>119753378</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2184,7 +2208,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2199,228 +2223,228 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="N57" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="9">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="9">
         <v>3123661</v>
       </c>
-      <c r="L58" s="9">
+      <c r="K59" s="9">
         <v>1221120</v>
       </c>
-      <c r="M58" s="9">
+      <c r="L59" s="9">
         <v>1583132</v>
       </c>
-      <c r="N58" s="9">
+      <c r="M59" s="9">
         <v>1823493</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="N59" s="9">
+        <v>2035081</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="11">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11">
         <v>-3198990</v>
       </c>
-      <c r="L59" s="11">
+      <c r="K60" s="11">
         <v>-1181657</v>
       </c>
-      <c r="M59" s="11">
+      <c r="L60" s="11">
         <v>-1601362</v>
       </c>
-      <c r="N59" s="11">
+      <c r="M60" s="11">
         <v>-1851515</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+      <c r="N60" s="11">
+        <v>-1963154</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="9">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="9">
         <v>107297</v>
       </c>
-      <c r="L60" s="9">
+      <c r="K61" s="9">
         <v>-3056</v>
       </c>
-      <c r="M60" s="9">
+      <c r="L61" s="9">
         <v>89157</v>
       </c>
-      <c r="N60" s="9">
+      <c r="M61" s="9">
         <v>64510</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
+      <c r="N61" s="9">
+        <v>35636</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15">
-        <v>0</v>
-      </c>
-      <c r="F61" s="15">
-        <v>0</v>
-      </c>
-      <c r="G61" s="15">
-        <v>0</v>
-      </c>
-      <c r="H61" s="15">
-        <v>0</v>
-      </c>
-      <c r="I61" s="15">
-        <v>0</v>
-      </c>
-      <c r="J61" s="15">
-        <v>0</v>
-      </c>
-      <c r="K61" s="15">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0</v>
+      </c>
+      <c r="J62" s="15">
         <v>31968</v>
       </c>
-      <c r="L61" s="15">
+      <c r="K62" s="15">
         <v>36407</v>
       </c>
-      <c r="M61" s="15">
+      <c r="L62" s="15">
         <v>70927</v>
       </c>
-      <c r="N61" s="15">
+      <c r="M62" s="15">
         <v>36488</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="15">
+        <v>107563</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2435,7 +2459,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2450,345 +2474,345 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="L66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M65" s="6" t="s">
+      <c r="M66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="N66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>-261963</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9">
         <v>-376805</v>
       </c>
-      <c r="G67" s="9">
+      <c r="F68" s="9">
         <v>-461528</v>
       </c>
-      <c r="H67" s="9">
+      <c r="G68" s="9">
         <v>-536423</v>
       </c>
-      <c r="I67" s="9">
+      <c r="H68" s="9">
         <v>-547487</v>
       </c>
-      <c r="J67" s="9">
+      <c r="I68" s="9">
         <v>-618377</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+      <c r="J68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9">
         <v>-43094</v>
       </c>
-      <c r="J69" s="9">
+      <c r="I70" s="9">
         <v>-19853</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <v>0</v>
-      </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="11">
-        <v>0</v>
-      </c>
-      <c r="J70" s="11">
-        <v>0</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="D71" s="11"/>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9">
-        <v>-19898</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9">
         <v>-19794</v>
       </c>
-      <c r="G71" s="9">
+      <c r="F72" s="9">
         <v>-67767</v>
       </c>
-      <c r="H71" s="9">
+      <c r="G72" s="9">
         <v>-59601</v>
       </c>
-      <c r="I71" s="9">
+      <c r="H72" s="9">
         <v>-27883</v>
       </c>
-      <c r="J71" s="9">
+      <c r="I72" s="9">
         <v>-56158</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+      <c r="J72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-      <c r="F72" s="11">
-        <v>0</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0</v>
-      </c>
-      <c r="J72" s="11">
-        <v>0</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13">
-        <v>-281861</v>
-      </c>
-      <c r="F73" s="13">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13">
         <v>-396599</v>
       </c>
-      <c r="G73" s="13">
+      <c r="F74" s="13">
         <v>-529295</v>
       </c>
-      <c r="H73" s="13">
+      <c r="G74" s="13">
         <v>-596024</v>
       </c>
-      <c r="I73" s="13">
+      <c r="H74" s="13">
         <v>-618464</v>
       </c>
-      <c r="J73" s="13">
+      <c r="I74" s="13">
         <v>-694388</v>
       </c>
-      <c r="K73" s="13">
-        <v>0</v>
-      </c>
-      <c r="L73" s="13">
-        <v>0</v>
-      </c>
-      <c r="M73" s="13">
-        <v>0</v>
-      </c>
-      <c r="N73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J74" s="13">
+        <v>0</v>
+      </c>
+      <c r="K74" s="13">
+        <v>0</v>
+      </c>
+      <c r="L74" s="13">
+        <v>0</v>
+      </c>
+      <c r="M74" s="13">
+        <v>0</v>
+      </c>
+      <c r="N74" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2803,7 +2827,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2818,228 +2842,228 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K78" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="6" t="s">
+      <c r="L78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M77" s="6" t="s">
+      <c r="M78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N77" s="6" t="s">
+      <c r="N78" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="9">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="9">
         <v>-2434098</v>
       </c>
-      <c r="L79" s="9">
+      <c r="K80" s="9">
         <v>-1027890</v>
       </c>
-      <c r="M79" s="9">
+      <c r="L80" s="9">
         <v>-1294122</v>
       </c>
-      <c r="N79" s="9">
+      <c r="M80" s="9">
         <v>-1609630</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+      <c r="N80" s="9">
+        <v>-1977573</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="11">
-        <v>0</v>
-      </c>
-      <c r="L80" s="11">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
         <v>-21083</v>
       </c>
-      <c r="M80" s="11">
+      <c r="L81" s="11">
         <v>-18738</v>
       </c>
-      <c r="N80" s="11">
+      <c r="M81" s="11">
         <v>39821</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="9">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="9">
         <v>-191837</v>
       </c>
-      <c r="L81" s="9">
+      <c r="K82" s="9">
         <v>-33825</v>
       </c>
-      <c r="M81" s="9">
+      <c r="L82" s="9">
         <v>-71628</v>
       </c>
-      <c r="N81" s="9">
+      <c r="M82" s="9">
         <v>-851</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
+      <c r="N82" s="9">
+        <v>106304</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15">
-        <v>0</v>
-      </c>
-      <c r="F82" s="15">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15">
-        <v>0</v>
-      </c>
-      <c r="K82" s="15">
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15">
         <v>-2625935</v>
       </c>
-      <c r="L82" s="15">
+      <c r="K83" s="15">
         <v>-1082798</v>
       </c>
-      <c r="M82" s="15">
+      <c r="L83" s="15">
         <v>-1384488</v>
       </c>
-      <c r="N82" s="15">
+      <c r="M83" s="15">
         <v>-1570660</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="15">
+        <v>-1871269</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3054,7 +3078,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3069,326 +3093,341 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K87" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="6" t="s">
+      <c r="L87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="6" t="s">
+      <c r="M87" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N87" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9">
-        <v>130388</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
         <v>92544</v>
       </c>
-      <c r="G88" s="9">
+      <c r="F89" s="9">
         <v>118566</v>
       </c>
-      <c r="H88" s="9">
+      <c r="G89" s="9">
         <v>80300</v>
       </c>
-      <c r="I88" s="9">
+      <c r="H89" s="9">
         <v>170860</v>
       </c>
-      <c r="J88" s="9">
+      <c r="I89" s="9">
         <v>180885</v>
       </c>
-      <c r="K88" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M88" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
+      <c r="J89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>0</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N89" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-      <c r="J90" s="9">
-        <v>0</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0</v>
-      </c>
-      <c r="J91" s="11">
-        <v>0</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N91" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9">
-        <v>-11967</v>
-      </c>
-      <c r="F92" s="9">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
         <v>2144</v>
       </c>
-      <c r="G92" s="9">
+      <c r="F93" s="9">
         <v>-5883</v>
       </c>
-      <c r="H92" s="9">
+      <c r="G93" s="9">
         <v>-9015</v>
       </c>
-      <c r="I92" s="9">
+      <c r="H93" s="9">
         <v>-2706</v>
       </c>
-      <c r="J92" s="9">
+      <c r="I93" s="9">
         <v>-7864</v>
       </c>
-      <c r="K92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
+      <c r="J93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11">
-        <v>26069</v>
-      </c>
-      <c r="F93" s="11">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
         <v>29736</v>
       </c>
-      <c r="G93" s="11">
+      <c r="F94" s="11">
         <v>-2688</v>
       </c>
-      <c r="H93" s="11">
+      <c r="G94" s="11">
         <v>2595</v>
       </c>
-      <c r="I93" s="11">
+      <c r="H94" s="11">
         <v>1721</v>
       </c>
-      <c r="J93" s="11">
+      <c r="I94" s="11">
         <v>28126</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N93" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
+      <c r="J94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13">
-        <v>144490</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13">
         <v>124424</v>
       </c>
-      <c r="G94" s="13">
+      <c r="F95" s="13">
         <v>109995</v>
       </c>
-      <c r="H94" s="13">
+      <c r="G95" s="13">
         <v>73880</v>
       </c>
-      <c r="I94" s="13">
+      <c r="H95" s="13">
         <v>169875</v>
       </c>
-      <c r="J94" s="13">
+      <c r="I95" s="13">
         <v>201147</v>
       </c>
-      <c r="K94" s="13">
-        <v>0</v>
-      </c>
-      <c r="L94" s="13">
-        <v>0</v>
-      </c>
-      <c r="M94" s="13">
-        <v>0</v>
-      </c>
-      <c r="N94" s="13">
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
         <v>0</v>
       </c>
     </row>
